--- a/Free Cash Flow.xlsx
+++ b/Free Cash Flow.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Strait Line" sheetId="1" r:id="rId1"/>
+    <sheet name="FCF" sheetId="1" r:id="rId1"/>
+    <sheet name="Tax Shield" sheetId="2" r:id="rId2"/>
+    <sheet name="MARCS Table" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Sales</t>
   </si>
@@ -39,9 +41,6 @@
     <t>Income tax rate</t>
   </si>
   <si>
-    <t>Amount of tax</t>
-  </si>
-  <si>
     <t>Unlevered Net Income</t>
   </si>
   <si>
@@ -63,26 +62,62 @@
     <t>Inventory Cost</t>
   </si>
   <si>
-    <t xml:space="preserve">Tax Rate = </t>
-  </si>
-  <si>
     <t xml:space="preserve">Investment = </t>
   </si>
   <si>
-    <t xml:space="preserve">Deprication Years = </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deprication Per Year = </t>
-  </si>
-  <si>
     <t>Equipment Cost</t>
+  </si>
+  <si>
+    <t>Years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tax % = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost of Capital = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Years = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">After Tax = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPV = </t>
+  </si>
+  <si>
+    <t>Sums</t>
+  </si>
+  <si>
+    <t>strait line % =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strait line $ = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARCS % = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARCS $ = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full Immediate $ = </t>
+  </si>
+  <si>
+    <t>tax expense</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="4">
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.000%"/>
+    <numFmt numFmtId="168" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="169" formatCode="#,##0.0000_);[Red]\(#,##0.0000\)"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +129,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -128,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -151,6 +201,18 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,45 +505,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
+      <c r="A1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
         <v>1</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="1">
         <v>2</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="1">
         <v>3</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="1">
         <v>4</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="1">
         <v>5</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="1">
         <v>6</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="1">
         <v>7</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="1">
         <v>8</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="1">
         <v>9</v>
       </c>
-      <c r="L1">
+      <c r="L1" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>247</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
         <v>0</v>
       </c>
     </row>
@@ -489,273 +584,576 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4">
-        <f>C2-C3</f>
+      <c r="B4" s="18">
+        <f>SUM(B2:B3)</f>
+        <v>247</v>
+      </c>
+      <c r="C4" s="18">
+        <f t="shared" ref="C4:L4" si="0">SUM(C2:C3)</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E4" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="18">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B5" s="15">
+        <v>0</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0</v>
+      </c>
+      <c r="F5" s="15">
+        <v>0</v>
+      </c>
+      <c r="G5" s="15">
+        <v>0</v>
+      </c>
+      <c r="H5" s="15">
+        <v>0</v>
+      </c>
+      <c r="I5" s="15">
+        <v>0</v>
+      </c>
+      <c r="J5" s="15">
+        <v>0</v>
+      </c>
+      <c r="K5" s="15">
+        <v>0</v>
+      </c>
+      <c r="L5" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1">
-        <f>$B$23</f>
-        <v>0.76</v>
-      </c>
-      <c r="E6" s="1">
-        <f>$B$23</f>
-        <v>0.76</v>
-      </c>
-      <c r="F6" s="1">
-        <f>$B$23</f>
-        <v>0.76</v>
-      </c>
-      <c r="G6" s="1">
-        <f>$B$23</f>
-        <v>0.76</v>
-      </c>
-      <c r="H6" s="1">
-        <f>$B$23</f>
-        <v>0.76</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="B6" s="16">
+        <v>0</v>
+      </c>
+      <c r="C6" s="16">
+        <v>0</v>
+      </c>
+      <c r="D6" s="16">
+        <f>$B$21</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="16">
+        <f>$B$21</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="16">
+        <f>$B$21</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="16">
+        <f>$B$21</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="16">
+        <f>$B$21</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="16">
+        <v>0</v>
+      </c>
+      <c r="J6" s="16">
+        <v>0</v>
+      </c>
+      <c r="K6" s="16">
+        <v>0</v>
+      </c>
+      <c r="L6" s="16">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C7">
+      <c r="B7" s="18">
+        <f>SUM(B4:B6)</f>
+        <v>247</v>
+      </c>
+      <c r="C7" s="18">
         <f>C4-C5-D6</f>
-        <v>-0.76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="9">
-        <f>$B$27</f>
-        <v>0.39</v>
+        <f>$B$25</f>
+        <v>0</v>
       </c>
       <c r="C8" s="9">
-        <f>$B$27</f>
-        <v>0.39</v>
+        <f>$B$25</f>
+        <v>0</v>
       </c>
       <c r="D8" s="9">
-        <f>$B$27</f>
-        <v>0.39</v>
+        <f>$B$25</f>
+        <v>0</v>
       </c>
       <c r="E8" s="9">
-        <f>$B$27</f>
-        <v>0.39</v>
+        <f>$B$25</f>
+        <v>0</v>
       </c>
       <c r="F8" s="9">
-        <f>$B$27</f>
-        <v>0.39</v>
+        <f>$B$25</f>
+        <v>0</v>
       </c>
       <c r="G8" s="9">
-        <f>$B$27</f>
-        <v>0.39</v>
+        <f>$B$25</f>
+        <v>0</v>
       </c>
       <c r="H8" s="9">
-        <f>$B$27</f>
-        <v>0.39</v>
+        <f>$B$25</f>
+        <v>0</v>
       </c>
       <c r="I8" s="9">
-        <f>$B$27</f>
-        <v>0.39</v>
+        <f>$B$25</f>
+        <v>0</v>
       </c>
       <c r="J8" s="9">
-        <f>$B$27</f>
-        <v>0.39</v>
+        <f>$B$25</f>
+        <v>0</v>
       </c>
       <c r="K8" s="9">
-        <f>$B$27</f>
-        <v>0.39</v>
+        <f>$B$25</f>
+        <v>0</v>
       </c>
       <c r="L8" s="9">
-        <f>$B$27</f>
-        <v>0.39</v>
+        <f>$B$25</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1">
+        <v>27</v>
+      </c>
+      <c r="B9" s="19">
+        <f>-B7*B8</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="19">
         <f>C7*C8</f>
-        <v>-0.2964</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="19">
+        <v>0</v>
+      </c>
+      <c r="E9" s="19">
+        <v>0</v>
+      </c>
+      <c r="F9" s="19">
+        <v>0</v>
+      </c>
+      <c r="G9" s="19">
+        <v>0</v>
+      </c>
+      <c r="H9" s="19">
+        <v>0</v>
+      </c>
+      <c r="I9" s="19">
+        <v>0</v>
+      </c>
+      <c r="J9" s="19">
+        <v>0</v>
+      </c>
+      <c r="K9" s="19">
+        <v>0</v>
+      </c>
+      <c r="L9" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="B10" s="18">
+        <f>SUM(B7,B9)</f>
+        <v>247</v>
+      </c>
+      <c r="C10" s="18">
+        <f t="shared" ref="C10:L10" si="1">SUM(C7,C9)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>128</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f>$B$21</f>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f>$B$21</f>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f>$B$21</f>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f>$B$21</f>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f>$B$21</f>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="B12" s="15">
+        <v>-187</v>
+      </c>
+      <c r="C12" s="15">
+        <v>0</v>
+      </c>
+      <c r="D12" s="15">
+        <v>0</v>
+      </c>
+      <c r="E12" s="15">
+        <v>0</v>
+      </c>
+      <c r="F12" s="15">
+        <v>0</v>
+      </c>
+      <c r="G12" s="15">
+        <v>0</v>
+      </c>
+      <c r="H12" s="15">
+        <v>0</v>
+      </c>
+      <c r="I12" s="15">
+        <v>0</v>
+      </c>
+      <c r="J12" s="15">
+        <v>0</v>
+      </c>
+      <c r="K12" s="15">
+        <v>0</v>
+      </c>
+      <c r="L12" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13">
-        <f>$B$23</f>
-        <v>0.76</v>
-      </c>
-      <c r="E13">
-        <f>$B$23</f>
-        <v>0.76</v>
-      </c>
-      <c r="F13">
-        <f>$B$23</f>
-        <v>0.76</v>
-      </c>
-      <c r="G13">
-        <f>$B$23</f>
-        <v>0.76</v>
-      </c>
-      <c r="H13">
-        <f>$B$23</f>
-        <v>0.76</v>
+        <v>14</v>
+      </c>
+      <c r="B13" s="15">
+        <v>0</v>
+      </c>
+      <c r="C13" s="15">
+        <f>$B$19</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="15">
+        <v>0</v>
+      </c>
+      <c r="E13" s="15">
+        <v>0</v>
+      </c>
+      <c r="F13" s="15">
+        <v>0</v>
+      </c>
+      <c r="G13" s="15">
+        <v>0</v>
+      </c>
+      <c r="H13" s="15">
+        <v>0</v>
+      </c>
+      <c r="I13" s="15">
+        <v>0</v>
+      </c>
+      <c r="J13" s="15">
+        <v>0</v>
+      </c>
+      <c r="K13" s="15">
+        <v>0</v>
+      </c>
+      <c r="L13" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="15">
+        <v>0</v>
+      </c>
+      <c r="C14" s="15">
+        <v>0</v>
+      </c>
+      <c r="D14" s="15">
+        <v>0</v>
+      </c>
+      <c r="E14" s="15">
+        <v>0</v>
+      </c>
+      <c r="F14" s="15">
+        <v>0</v>
+      </c>
+      <c r="G14" s="15">
+        <v>0</v>
+      </c>
+      <c r="H14" s="15">
+        <v>0</v>
+      </c>
+      <c r="I14" s="15">
+        <v>0</v>
+      </c>
+      <c r="J14" s="15">
+        <v>0</v>
+      </c>
+      <c r="K14" s="15">
+        <v>0</v>
+      </c>
+      <c r="L14" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15">
-        <f>$B$21</f>
-        <v>3.8</v>
+      <c r="B15" s="1">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1">
-        <v>3.8</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <f>SUM(B10:B15)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21">
-        <f>1.9*2</f>
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23">
-        <f>B21/B22</f>
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="8"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="8">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
@@ -766,15 +1164,698 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="601" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12">
+        <f>(100/$B$14)/100</f>
+        <v>0.2</v>
+      </c>
+      <c r="D2" s="12">
+        <f t="shared" ref="D2:L2" si="0">(100/$B$14)/100</f>
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="12">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="F2" s="12">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="G2" s="12">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="H2" s="12">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="I2" s="12">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="J2" s="12">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="K2" s="12">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="L2" s="12">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="13">
+        <f>$B$13*C2</f>
+        <v>1.56</v>
+      </c>
+      <c r="D3" s="13">
+        <f t="shared" ref="D3:L3" si="1">$B$13*D2</f>
+        <v>1.56</v>
+      </c>
+      <c r="E3" s="13">
+        <f t="shared" si="1"/>
+        <v>1.56</v>
+      </c>
+      <c r="F3" s="13">
+        <f t="shared" si="1"/>
+        <v>1.56</v>
+      </c>
+      <c r="G3" s="13">
+        <f t="shared" si="1"/>
+        <v>1.56</v>
+      </c>
+      <c r="H3" s="13">
+        <f t="shared" si="1"/>
+        <v>1.56</v>
+      </c>
+      <c r="I3" s="13">
+        <f t="shared" si="1"/>
+        <v>1.56</v>
+      </c>
+      <c r="J3" s="13">
+        <f t="shared" si="1"/>
+        <v>1.56</v>
+      </c>
+      <c r="K3" s="13">
+        <f t="shared" si="1"/>
+        <v>1.56</v>
+      </c>
+      <c r="L3" s="13">
+        <f t="shared" si="1"/>
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <f>$B$17*C3</f>
+        <v>0.53040000000000009</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:L4" si="2">$B$17*D3</f>
+        <v>0.53040000000000009</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>0.53040000000000009</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>0.53040000000000009</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>0.53040000000000009</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>0.53040000000000009</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>0.53040000000000009</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>0.53040000000000009</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="2"/>
+        <v>0.53040000000000009</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="2"/>
+        <v>0.53040000000000009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="10">
+        <f>NPV($B$16,$C$4:C4) + $B$3</f>
+        <v>0.49111111111111116</v>
+      </c>
+      <c r="D5" s="10">
+        <f>NPV($B$16,$C$4:D4) + $B$3</f>
+        <v>0.94584362139917699</v>
+      </c>
+      <c r="E5" s="10">
+        <f>NPV($B$16,$C$4:E4) + $B$3</f>
+        <v>1.366892242036275</v>
+      </c>
+      <c r="F5" s="10">
+        <f>NPV($B$16,$C$4:F4) + $B$3</f>
+        <v>1.7567520759595139</v>
+      </c>
+      <c r="G5" s="10">
+        <f>NPV($B$16,$C$4:G4) + $B$3</f>
+        <v>2.1177334036662168</v>
+      </c>
+      <c r="H5" s="10">
+        <f>NPV($B$16,$C$4:H4) + $B$3</f>
+        <v>2.451975373765015</v>
+      </c>
+      <c r="I5" s="10">
+        <f>NPV($B$16,$C$4:I4) + $B$3</f>
+        <v>2.7614586794120508</v>
+      </c>
+      <c r="J5" s="10">
+        <f>NPV($B$16,$C$4:J4) + $B$3</f>
+        <v>3.0480172957518987</v>
+      </c>
+      <c r="K5" s="10">
+        <f>NPV($B$16,$C$4:K4) + $B$3</f>
+        <v>3.3133493479184248</v>
+      </c>
+      <c r="L5" s="10">
+        <f>NPV($B$16,$C$4:L4) + $B$3</f>
+        <v>3.5590271739985408</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0.32</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0.192</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0.1152</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0.1152</v>
+      </c>
+      <c r="G7" s="11">
+        <v>5.7599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <f>$B$13*B7</f>
+        <v>1.56</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:G8" si="3">$B$13*C7</f>
+        <v>2.496</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="3"/>
+        <v>1.4976</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="3"/>
+        <v>0.89855999999999991</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>0.89855999999999991</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>0.44927999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <f>$B$17*B8</f>
+        <v>0.53040000000000009</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:G9" si="4">$B$17*C8</f>
+        <v>0.84864000000000006</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="4"/>
+        <v>0.50918400000000008</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="4"/>
+        <v>0.30551040000000002</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="4"/>
+        <v>0.30551040000000002</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>0.15275520000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <f>B9</f>
+        <v>0.53040000000000009</v>
+      </c>
+      <c r="C10" s="14">
+        <f>NPV($B$16,$C$9:C9)+$B$10</f>
+        <v>1.3161777777777779</v>
+      </c>
+      <c r="D10" s="14">
+        <f>NPV($B$16,$C$9:D9)+$B$10</f>
+        <v>1.752720987654321</v>
+      </c>
+      <c r="E10" s="14">
+        <f>NPV($B$16,$C$9:E9)+$B$10</f>
+        <v>1.9952449931412897</v>
+      </c>
+      <c r="F10" s="14">
+        <f>NPV($B$16,$C$9:F9)+$B$10</f>
+        <v>2.219804257481075</v>
+      </c>
+      <c r="G10" s="14">
+        <f>NPV($B$16,$C$9:G9)+$B$10</f>
+        <v>2.3237668798606053</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="8">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19">
+        <f>B13*B17</f>
+        <v>2.6520000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="601" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0.44450000000000001</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0.14810000000000001</v>
+      </c>
+      <c r="E4" s="11">
+        <v>7.4099999999999999E-2</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="N4" s="11">
+        <f>SUM(B4:L4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="N5" s="11"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0.32</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0.192</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0.1152</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0.1152</v>
+      </c>
+      <c r="G6" s="11">
+        <v>5.7599999999999998E-2</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11">
+        <f>SUM(B6:L6)</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>0.1429</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0.24490000000000001</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0.1749</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0.1249</v>
+      </c>
+      <c r="F8" s="11">
+        <v>8.9300000000000004E-2</v>
+      </c>
+      <c r="G8" s="11">
+        <v>8.9200000000000002E-2</v>
+      </c>
+      <c r="H8" s="11">
+        <v>8.9300000000000004E-2</v>
+      </c>
+      <c r="I8" s="11">
+        <v>4.4600000000000001E-2</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11">
+        <f>SUM(B8:L8)</f>
+        <v>1.0000000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0.18</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="E11" s="11">
+        <v>0.1152</v>
+      </c>
+      <c r="F11" s="11">
+        <v>9.2200000000000004E-2</v>
+      </c>
+      <c r="G11" s="11">
+        <v>7.3700000000000002E-2</v>
+      </c>
+      <c r="H11" s="11">
+        <v>6.5500000000000003E-2</v>
+      </c>
+      <c r="I11" s="11">
+        <v>6.5500000000000003E-2</v>
+      </c>
+      <c r="J11" s="11">
+        <v>6.5600000000000006E-2</v>
+      </c>
+      <c r="K11" s="11">
+        <v>6.5500000000000003E-2</v>
+      </c>
+      <c r="L11" s="11">
+        <v>3.2800000000000003E-2</v>
+      </c>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11">
+        <f t="shared" ref="N6:N11" si="0">SUM(B11:L11)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>